--- a/Configuracion/Auditoría Configuración.xlsx
+++ b/Configuracion/Auditoría Configuración.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t xml:space="preserve">Auditorías de Configuración</t>
   </si>
@@ -70,36 +70,42 @@
     <t xml:space="preserve">Guía de estilos y estándares</t>
   </si>
   <si>
+    <t xml:space="preserve">* Estatus del Proyecto en la 1era iteración</t>
+  </si>
+  <si>
     <t xml:space="preserve">Checar que los documentos  subidos siga los estándares establecidos</t>
   </si>
   <si>
     <t xml:space="preserve">*Propuesta de Proyecto</t>
   </si>
   <si>
+    <t xml:space="preserve">* Estatus del Proyecto en la 2da iteración</t>
+  </si>
+  <si>
     <t xml:space="preserve">Checar que los documentos que estén en el repositorio sean las versiones más actualizadas</t>
   </si>
   <si>
-    <t xml:space="preserve">* Matriz de requerimientos</t>
+    <t xml:space="preserve">* Matriz de trazabilidad</t>
   </si>
   <si>
     <t xml:space="preserve">Checar que se está siguiendo el estándar de no trabajar en develop directamente</t>
   </si>
   <si>
-    <t xml:space="preserve">* Matriz de trazabilidad</t>
+    <t xml:space="preserve">* Riesgos</t>
   </si>
   <si>
     <t xml:space="preserve">Checar que el equipo tenga la versión de herramientas que vienen en la wiki, y si no esta en la wiki, versionarlo</t>
   </si>
   <si>
-    <t xml:space="preserve">* Riesgos</t>
-  </si>
-  <si>
     <t xml:space="preserve">* Componentes del sistema</t>
   </si>
   <si>
     <t xml:space="preserve">* Flujo de vistas</t>
   </si>
   <si>
+    <t xml:space="preserve">* Arquitectura inicial</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tarea</t>
   </si>
   <si>
@@ -109,10 +115,13 @@
     <t xml:space="preserve">Fecha límite</t>
   </si>
   <si>
-    <t xml:space="preserve">* Arquitectura inicial</t>
-  </si>
-  <si>
     <t xml:space="preserve">* Estimación de function points</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Plantilla de acciones correctivas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Estatus del Proyecto general</t>
   </si>
 </sst>
 </file>
@@ -127,6 +136,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -148,6 +158,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -198,7 +209,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -217,6 +228,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -296,23 +311,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.8826530612245"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.3265306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.8061224489796"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="26.719387755102"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="18.2397959183673"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="19.3571428571429"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.515306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="26.3214285714286"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="19.0357142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -362,78 +377,138 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="H7" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="J7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J8" s="5"/>
+      <c r="K8" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>22</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" s="0" t="s">
-        <v>23</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3"/>
-      <c r="H12" s="0" t="s">
-        <v>24</v>
-      </c>
+      <c r="H12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H13" s="0" t="s">
-        <v>25</v>
-      </c>
+      <c r="H13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H15" s="0" t="s">
         <v>30</v>
       </c>
+      <c r="H14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+    </row>
+    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+    </row>
+    <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
